--- a/combine_effort/4. 17-oct-2021 to predict 24-oct 2021/files/auto-correlation1.xlsx
+++ b/combine_effort/4. 17-oct-2021 to predict 24-oct 2021/files/auto-correlation1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laolu projects\machine_learning\combine_effort\4. 17-oct-2021 to predict 24-oct 2021\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B28D2-AA33-4643-AB70-5809F03B3C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA5CE5B-A5BB-4B71-B782-880A66ED2A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pips calculation" sheetId="28" r:id="rId1"/>
@@ -612,7 +612,7 @@
   <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>0.93118999999999996</v>
       </c>
       <c r="I3">
-        <f>G3-D3</f>
+        <f t="shared" ref="I3:I29" si="0">G3-D3</f>
         <v>8.3400000000000141E-3</v>
       </c>
       <c r="J3">
@@ -678,7 +678,7 @@
         <v>0.68813000000000002</v>
       </c>
       <c r="I4">
-        <f>G4-D4</f>
+        <f t="shared" si="0"/>
         <v>5.0400000000000444E-3</v>
       </c>
       <c r="J4">
@@ -686,7 +686,7 @@
         <v>504.00000000000443</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K29" si="0">ABS(J4)</f>
+        <f t="shared" ref="K4:K29" si="1">ABS(J4)</f>
         <v>504.00000000000443</v>
       </c>
       <c r="M4">
@@ -711,7 +711,7 @@
         <v>85.700999999999993</v>
       </c>
       <c r="I5">
-        <f>G5-D5</f>
+        <f t="shared" si="0"/>
         <v>0.94299999999999784</v>
       </c>
       <c r="J5">
@@ -719,7 +719,7 @@
         <v>942.99999999999784</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>942.99999999999784</v>
       </c>
     </row>
@@ -740,15 +740,15 @@
         <v>1.0492699999999999</v>
       </c>
       <c r="I6">
-        <f>G6-D6</f>
+        <f t="shared" si="0"/>
         <v>6.5800000000000303E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J28" si="1">I6*100000</f>
+        <f t="shared" ref="J6:J28" si="2">I6*100000</f>
         <v>658.00000000000307</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>658.00000000000307</v>
       </c>
     </row>
@@ -769,15 +769,15 @@
         <v>0.75205</v>
       </c>
       <c r="I7">
-        <f>G7-D7</f>
+        <f t="shared" si="0"/>
         <v>5.6300000000000239E-3</v>
       </c>
       <c r="J7">
+        <f t="shared" si="2"/>
+        <v>563.00000000000239</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>563.00000000000239</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="0"/>
         <v>563.00000000000239</v>
       </c>
       <c r="M7">
@@ -802,15 +802,15 @@
         <v>0.73885999999999996</v>
       </c>
       <c r="I8">
-        <f>G8-D8</f>
+        <f t="shared" si="0"/>
         <v>-6.4000000000008495E-4</v>
       </c>
       <c r="J8">
+        <f t="shared" si="2"/>
+        <v>-64.000000000008498</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-64.000000000008498</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
         <v>64.000000000008498</v>
       </c>
       <c r="M8">
@@ -835,7 +835,7 @@
         <v>92.016000000000005</v>
       </c>
       <c r="I9">
-        <f>G9-D9</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="J9">
@@ -843,7 +843,7 @@
         <v>250</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="M9">
@@ -868,7 +868,7 @@
         <v>124.52</v>
       </c>
       <c r="I10">
-        <f>G10-D10</f>
+        <f t="shared" si="0"/>
         <v>0.79299999999999216</v>
       </c>
       <c r="J10">
@@ -876,7 +876,7 @@
         <v>792.99999999999216</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>792.99999999999216</v>
       </c>
       <c r="M10">
@@ -901,15 +901,15 @@
         <v>1.53712</v>
       </c>
       <c r="I11">
-        <f>G11-D11</f>
+        <f t="shared" si="0"/>
         <v>-2.0669999999999966E-2</v>
       </c>
       <c r="J11">
+        <f t="shared" si="2"/>
+        <v>-2066.9999999999968</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-2066.9999999999968</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
         <v>2066.9999999999968</v>
       </c>
     </row>
@@ -930,15 +930,15 @@
         <v>1.4317299999999999</v>
       </c>
       <c r="I12">
-        <f>G12-D12</f>
+        <f t="shared" si="0"/>
         <v>-7.1400000000001462E-3</v>
       </c>
       <c r="J12">
+        <f t="shared" si="2"/>
+        <v>-714.00000000001467</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-714.00000000001467</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
         <v>714.00000000001467</v>
       </c>
     </row>
@@ -959,15 +959,15 @@
         <v>1.0580000000000001</v>
       </c>
       <c r="I13">
-        <f>G13-D13</f>
+        <f t="shared" si="0"/>
         <v>-7.7199999999999491E-3</v>
       </c>
       <c r="J13">
+        <f t="shared" si="2"/>
+        <v>-771.99999999999488</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-771.99999999999488</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
         <v>771.99999999999488</v>
       </c>
       <c r="M13">
@@ -992,15 +992,15 @@
         <v>0.84431999999999996</v>
       </c>
       <c r="I14">
-        <f>G14-D14</f>
+        <f t="shared" si="0"/>
         <v>-1.1200000000000099E-3</v>
       </c>
       <c r="J14">
+        <f t="shared" si="2"/>
+        <v>-112.00000000000099</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-112.00000000000099</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
         <v>112.00000000000099</v>
       </c>
       <c r="M14">
@@ -1025,7 +1025,7 @@
         <v>131.76300000000001</v>
       </c>
       <c r="I15">
-        <f>G15-D15</f>
+        <f t="shared" si="0"/>
         <v>-0.38700000000000045</v>
       </c>
       <c r="J15">
@@ -1033,7 +1033,7 @@
         <v>-387.00000000000045</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>387.00000000000045</v>
       </c>
     </row>
@@ -1054,15 +1054,15 @@
         <v>1.6131899999999999</v>
       </c>
       <c r="I16">
-        <f>G16-D16</f>
+        <f t="shared" si="0"/>
         <v>-1.2310000000000043E-2</v>
       </c>
       <c r="J16">
+        <f t="shared" si="2"/>
+        <v>-1231.0000000000043</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-1231.0000000000043</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
         <v>1231.0000000000043</v>
       </c>
       <c r="M16">
@@ -1087,15 +1087,15 @@
         <v>1.1561999999999999</v>
       </c>
       <c r="I17">
-        <f>G17-D17</f>
+        <f t="shared" si="0"/>
         <v>-7.6000000000000512E-3</v>
       </c>
       <c r="J17">
+        <f t="shared" si="2"/>
+        <v>-760.00000000000512</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-760.00000000000512</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="0"/>
         <v>760.00000000000512</v>
       </c>
       <c r="M17">
@@ -1120,15 +1120,15 @@
         <v>1.8205899999999999</v>
       </c>
       <c r="I18">
-        <f>G18-D18</f>
+        <f t="shared" si="0"/>
         <v>-1.8250000000000099E-2</v>
       </c>
       <c r="J18">
+        <f t="shared" si="2"/>
+        <v>-1825.00000000001</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-1825.00000000001</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="0"/>
         <v>1825.00000000001</v>
       </c>
     </row>
@@ -1149,15 +1149,15 @@
         <v>1.6954800000000001</v>
       </c>
       <c r="I19">
-        <f>G19-D19</f>
+        <f t="shared" si="0"/>
         <v>-2.9899999999998261E-3</v>
       </c>
       <c r="J19">
+        <f t="shared" si="2"/>
+        <v>-298.99999999998261</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-298.99999999998261</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="0"/>
         <v>298.99999999998261</v>
       </c>
       <c r="M19">
@@ -1182,15 +1182,15 @@
         <v>1.25295</v>
       </c>
       <c r="I20">
-        <f>G20-D20</f>
+        <f t="shared" si="0"/>
         <v>-6.7399999999999682E-3</v>
       </c>
       <c r="J20">
+        <f t="shared" si="2"/>
+        <v>-673.99999999999682</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-673.99999999999682</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="0"/>
         <v>673.99999999999682</v>
       </c>
       <c r="M20">
@@ -1215,7 +1215,7 @@
         <v>156.042</v>
       </c>
       <c r="I21">
-        <f>G21-D21</f>
+        <f t="shared" si="0"/>
         <v>6.9999999999993179E-2</v>
       </c>
       <c r="J21">
@@ -1223,7 +1223,7 @@
         <v>69.999999999993179</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.999999999993179</v>
       </c>
       <c r="M21">
@@ -1248,15 +1248,15 @@
         <v>1.3692</v>
       </c>
       <c r="I22">
-        <f>G22-D22</f>
+        <f t="shared" si="0"/>
         <v>-4.4600000000001305E-3</v>
       </c>
       <c r="J22">
+        <f t="shared" si="2"/>
+        <v>-446.00000000001307</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-446.00000000001307</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="0"/>
         <v>446.00000000001307</v>
       </c>
     </row>
@@ -1277,15 +1277,15 @@
         <v>0.88710999999999995</v>
       </c>
       <c r="I23">
-        <f>G23-D23</f>
+        <f t="shared" si="0"/>
         <v>4.349999999999965E-3</v>
       </c>
       <c r="J23">
+        <f t="shared" si="2"/>
+        <v>434.99999999999648</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>434.99999999999648</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="0"/>
         <v>434.99999999999648</v>
       </c>
       <c r="M23">
@@ -1310,15 +1310,15 @@
         <v>0.65563000000000005</v>
       </c>
       <c r="I24">
-        <f>G24-D24</f>
+        <f t="shared" si="0"/>
         <v>2.3300000000000542E-3</v>
       </c>
       <c r="J24">
+        <f t="shared" si="2"/>
+        <v>233.00000000000543</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>233.00000000000543</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="0"/>
         <v>233.00000000000543</v>
       </c>
       <c r="M24">
@@ -1343,7 +1343,7 @@
         <v>81.650999999999996</v>
       </c>
       <c r="I25">
-        <f>G25-D25</f>
+        <f t="shared" si="0"/>
         <v>0.58299999999999841</v>
       </c>
       <c r="J25">
@@ -1351,7 +1351,7 @@
         <v>582.99999999999841</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>582.99999999999841</v>
       </c>
       <c r="M25">
@@ -1376,15 +1376,15 @@
         <v>0.71650999999999998</v>
       </c>
       <c r="I26">
-        <f>G26-D26</f>
+        <f t="shared" si="0"/>
         <v>2.6599999999999957E-3</v>
       </c>
       <c r="J26">
+        <f t="shared" si="2"/>
+        <v>265.99999999999955</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>265.99999999999955</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="0"/>
         <v>265.99999999999955</v>
       </c>
       <c r="M26">
@@ -1409,15 +1409,15 @@
         <v>1.2382599999999999</v>
       </c>
       <c r="I27">
-        <f>G27-D27</f>
+        <f t="shared" si="0"/>
         <v>1.8499999999999073E-3</v>
       </c>
       <c r="J27">
+        <f t="shared" si="2"/>
+        <v>184.99999999999073</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>184.99999999999073</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="0"/>
         <v>184.99999999999073</v>
       </c>
     </row>
@@ -1438,15 +1438,15 @@
         <v>0.91505999999999998</v>
       </c>
       <c r="I28">
-        <f>G28-D28</f>
+        <f t="shared" si="0"/>
         <v>-7.9999999999968985E-5</v>
       </c>
       <c r="J28">
+        <f t="shared" si="2"/>
+        <v>-7.9999999999968985</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-7.9999999999968985</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="0"/>
         <v>7.9999999999968985</v>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>113.961</v>
       </c>
       <c r="I29">
-        <f>G29-D29</f>
+        <f t="shared" si="0"/>
         <v>0.40999999999999659</v>
       </c>
       <c r="J29">
@@ -1475,7 +1475,7 @@
         <v>409.99999999999659</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>409.99999999999659</v>
       </c>
       <c r="M29">
